--- a/tools.xlsx
+++ b/tools.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\noeloc\Desktop\work\CNRS_AIST_Work_All\CNRS_AIST_Mobile_Shopping_Robot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:101_{E61A81A6-1EE6-481F-90CD-8B10D6C55357}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB796F8C-67FD-47DE-AFEF-8EAE4F0AAB8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" activeTab="1" xr2:uid="{16D5FF72-5A0D-4C85-A720-ED137E5AC8BC}"/>
   </bookViews>
   <sheets>
     <sheet name="ssh latency" sheetId="1" r:id="rId1"/>
     <sheet name="odom calibration" sheetId="2" r:id="rId2"/>
+    <sheet name="CPU Load" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="24">
   <si>
     <t>Lidars + Cameras</t>
   </si>
@@ -79,13 +80,43 @@
   </si>
   <si>
     <t>coeff (kw) to apply</t>
+  </si>
+  <si>
+    <t>Jetson</t>
+  </si>
+  <si>
+    <t>NUC</t>
+  </si>
+  <si>
+    <t>Remote computer</t>
+  </si>
+  <si>
+    <t>Shared computation</t>
+  </si>
+  <si>
+    <t>not shared</t>
+  </si>
+  <si>
+    <t>/</t>
+  </si>
+  <si>
+    <t>notes</t>
+  </si>
+  <si>
+    <t>10% of rotationnal speed</t>
+  </si>
+  <si>
+    <t>20% of rotationnal speed</t>
+  </si>
+  <si>
+    <t>30% of rotationnal speed (current maximum when navigating)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -140,6 +171,20 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -161,7 +206,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -437,11 +482,52 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -495,12 +581,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -510,6 +590,27 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -522,27 +623,40 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -605,6 +719,138 @@
         <a:xfrm>
           <a:off x="7688580" y="1840230"/>
           <a:ext cx="5817870" cy="2400300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>472440</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>140970</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C8E5DBDA-9472-F454-8513-1CE0B386FFA7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5985510" y="1661160"/>
+          <a:ext cx="9204960" cy="765810"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>430530</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>3810</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1DC98EF5-929E-5E89-A659-FDC32F52CCAA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6187440" y="1280160"/>
+          <a:ext cx="4271010" cy="552450"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -926,7 +1172,7 @@
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -948,7 +1194,7 @@
       </c>
     </row>
     <row r="2" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="29" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -967,21 +1213,21 @@
       </c>
     </row>
     <row r="3" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="25"/>
+      <c r="A3" s="30"/>
       <c r="B3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="29">
+      <c r="C3" s="23">
         <f>5381631/$F$2</f>
         <v>5.3816309999999996</v>
       </c>
-      <c r="D3" s="30">
+      <c r="D3" s="24">
         <f>4669594/$F$2</f>
         <v>4.669594</v>
       </c>
     </row>
     <row r="4" spans="1:8" s="1" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A4" s="26"/>
+      <c r="A4" s="31"/>
       <c r="B4" s="6" t="s">
         <v>6</v>
       </c>
@@ -995,7 +1241,7 @@
       </c>
     </row>
     <row r="5" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="24" t="s">
+      <c r="A5" s="29" t="s">
         <v>2</v>
       </c>
       <c r="B5" s="4" t="s">
@@ -1011,26 +1257,26 @@
       </c>
     </row>
     <row r="6" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="25"/>
+      <c r="A6" s="30"/>
       <c r="B6" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="31">
+      <c r="C6" s="25">
         <f>41034658/$F$2</f>
         <v>41.034658</v>
       </c>
-      <c r="D6" s="32">
+      <c r="D6" s="26">
         <f>44071070/$F$2</f>
         <v>44.071069999999999</v>
       </c>
-      <c r="F6" s="27" t="s">
+      <c r="F6" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="G6" s="27"/>
-      <c r="H6" s="27"/>
+      <c r="G6" s="32"/>
+      <c r="H6" s="32"/>
     </row>
     <row r="7" spans="1:8" s="1" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A7" s="26"/>
+      <c r="A7" s="31"/>
       <c r="B7" s="6" t="s">
         <v>6</v>
       </c>
@@ -1042,12 +1288,12 @@
         <f>159405494/$F$2</f>
         <v>159.405494</v>
       </c>
-      <c r="F7" s="27"/>
-      <c r="G7" s="27"/>
-      <c r="H7" s="27"/>
+      <c r="F7" s="32"/>
+      <c r="G7" s="32"/>
+      <c r="H7" s="32"/>
     </row>
     <row r="8" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="24" t="s">
+      <c r="A8" s="29" t="s">
         <v>1</v>
       </c>
       <c r="B8" s="4" t="s">
@@ -1061,26 +1307,26 @@
         <f>3572964/$F$2</f>
         <v>3.5729639999999998</v>
       </c>
-      <c r="F8" s="27"/>
-      <c r="G8" s="27"/>
-      <c r="H8" s="27"/>
+      <c r="F8" s="32"/>
+      <c r="G8" s="32"/>
+      <c r="H8" s="32"/>
     </row>
     <row r="9" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="25"/>
+      <c r="A9" s="30"/>
       <c r="B9" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="33">
+      <c r="C9" s="27">
         <f>18612106/$F$2</f>
         <v>18.612106000000001</v>
       </c>
-      <c r="D9" s="34">
+      <c r="D9" s="28">
         <f>11839962/$F$2</f>
         <v>11.839962</v>
       </c>
     </row>
     <row r="10" spans="1:8" s="1" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A10" s="26"/>
+      <c r="A10" s="31"/>
       <c r="B10" s="6" t="s">
         <v>6</v>
       </c>
@@ -1094,7 +1340,7 @@
       </c>
     </row>
     <row r="11" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="24" t="s">
+      <c r="A11" s="29" t="s">
         <v>0</v>
       </c>
       <c r="B11" s="4" t="s">
@@ -1110,21 +1356,21 @@
       </c>
     </row>
     <row r="12" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="25"/>
+      <c r="A12" s="30"/>
       <c r="B12" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="31">
+      <c r="C12" s="25">
         <f>37695977/$F$2</f>
         <v>37.695976999999999</v>
       </c>
-      <c r="D12" s="28">
+      <c r="D12" s="22">
         <f>46511878/$F$2</f>
         <v>46.511878000000003</v>
       </c>
     </row>
     <row r="13" spans="1:8" s="1" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A13" s="26"/>
+      <c r="A13" s="31"/>
       <c r="B13" s="6" t="s">
         <v>6</v>
       </c>
@@ -1165,64 +1411,73 @@
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="17.20703125" style="23" customWidth="1"/>
+    <col min="1" max="1" width="17.20703125" style="21" customWidth="1"/>
     <col min="2" max="2" width="19.1015625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="20.83984375" style="23" customWidth="1"/>
+    <col min="3" max="3" width="20.83984375" style="21" customWidth="1"/>
     <col min="4" max="4" width="19" style="1" customWidth="1"/>
-    <col min="5" max="5" width="10.5234375" customWidth="1"/>
+    <col min="5" max="5" width="50.9453125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="2" customFormat="1" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="33" t="s">
         <v>13</v>
       </c>
+      <c r="E1" s="33" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="2" spans="1:6" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A2" s="22">
+      <c r="A2" s="39">
         <f>58.32/4</f>
         <v>14.58</v>
       </c>
-      <c r="B2" s="21">
+      <c r="B2" s="43">
         <f>PI()*2/A2</f>
         <v>0.43094549431958751</v>
       </c>
-      <c r="C2" s="22">
+      <c r="C2" s="43">
         <v>0.47123999999999999</v>
       </c>
-      <c r="D2" s="21">
+      <c r="D2" s="34">
         <f>B2/C2</f>
         <v>0.91449260317372782</v>
       </c>
+      <c r="E2" s="44" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="3" spans="1:6" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A3" s="22">
+      <c r="A3" s="39">
         <f>36.36/5</f>
         <v>7.2720000000000002</v>
       </c>
-      <c r="B3" s="21">
+      <c r="B3" s="43">
         <f t="shared" ref="B3:B7" si="0">PI()*2/A3</f>
         <v>0.86402438217541067</v>
       </c>
-      <c r="C3" s="22">
+      <c r="C3" s="43">
         <v>0.94248100000000001</v>
       </c>
-      <c r="D3" s="21">
+      <c r="D3" s="34">
         <f t="shared" ref="D3:D7" si="1">B3/C3</f>
         <v>0.9167552260209072</v>
+      </c>
+      <c r="E3" s="44" t="s">
+        <v>22</v>
       </c>
       <c r="F3">
         <f>AVERAGE(D2:D4)</f>
@@ -1230,131 +1485,346 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A4" s="22">
+      <c r="A4" s="39">
         <f>48.63/10</f>
         <v>4.8630000000000004</v>
       </c>
-      <c r="B4" s="21">
+      <c r="B4" s="43">
         <f t="shared" si="0"/>
         <v>1.2920389280648952</v>
       </c>
-      <c r="C4" s="22">
+      <c r="C4" s="43">
         <v>1.4137219999999999</v>
       </c>
-      <c r="D4" s="21">
+      <c r="D4" s="34">
         <f t="shared" si="1"/>
         <v>0.91392715687022996</v>
       </c>
+      <c r="E4" s="44" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="5" spans="1:6" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A5" s="22">
+      <c r="A5" s="37">
         <f>35.89/10</f>
         <v>3.589</v>
       </c>
-      <c r="B5" s="21">
+      <c r="B5" s="40">
         <f t="shared" si="0"/>
         <v>1.7506785475563071</v>
       </c>
-      <c r="C5" s="22">
+      <c r="C5" s="40">
         <v>1.884962</v>
       </c>
-      <c r="D5" s="21">
+      <c r="D5" s="41">
         <f t="shared" si="1"/>
         <v>0.92876065806966246</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A6" s="22"/>
-      <c r="B6" s="21" t="e">
+      <c r="A6" s="20"/>
+      <c r="B6" s="19" t="e">
         <f>PI()*2/A6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="C6" s="22"/>
-      <c r="D6" s="21" t="e">
+      <c r="C6" s="20"/>
+      <c r="D6" s="19" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A7" s="22"/>
-      <c r="B7" s="21" t="e">
+      <c r="A7" s="20"/>
+      <c r="B7" s="19" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="C7" s="22"/>
-      <c r="D7" s="21" t="e">
+      <c r="C7" s="20"/>
+      <c r="D7" s="19" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A8" s="22"/>
-      <c r="B8" s="21"/>
-      <c r="C8" s="22"/>
-      <c r="D8" s="21"/>
+      <c r="A8" s="20"/>
+      <c r="B8" s="19"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="19"/>
     </row>
     <row r="9" spans="1:6" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A9" s="22"/>
-      <c r="B9" s="21"/>
-      <c r="C9" s="22"/>
-      <c r="D9" s="21"/>
+      <c r="A9" s="20"/>
+      <c r="B9" s="19"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="19"/>
     </row>
     <row r="10" spans="1:6" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A10" s="22"/>
-      <c r="B10" s="21"/>
-      <c r="C10" s="22"/>
-      <c r="D10" s="21"/>
+      <c r="A10" s="20"/>
+      <c r="B10" s="19"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="19"/>
     </row>
     <row r="11" spans="1:6" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A11" s="22"/>
-      <c r="B11" s="21"/>
-      <c r="C11" s="22"/>
-      <c r="D11" s="21"/>
+      <c r="A11" s="20"/>
+      <c r="B11" s="19"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="19"/>
     </row>
     <row r="12" spans="1:6" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A12" s="22"/>
-      <c r="B12" s="21"/>
-      <c r="C12" s="22"/>
-      <c r="D12" s="21"/>
+      <c r="A12" s="20"/>
+      <c r="B12" s="19"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="19"/>
     </row>
     <row r="13" spans="1:6" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A13" s="22"/>
-      <c r="B13" s="21"/>
-      <c r="C13" s="22"/>
-      <c r="D13" s="21"/>
+      <c r="A13" s="20"/>
+      <c r="B13" s="19"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="19"/>
     </row>
     <row r="14" spans="1:6" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A14" s="22"/>
-      <c r="B14" s="21"/>
-      <c r="C14" s="22"/>
-      <c r="D14" s="21"/>
+      <c r="A14" s="20"/>
+      <c r="B14" s="19"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="19"/>
     </row>
     <row r="15" spans="1:6" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A15" s="22"/>
-      <c r="B15" s="21"/>
-      <c r="C15" s="22"/>
-      <c r="D15" s="21"/>
+      <c r="A15" s="20"/>
+      <c r="B15" s="19"/>
+      <c r="C15" s="20"/>
+      <c r="D15" s="19"/>
     </row>
     <row r="16" spans="1:6" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A16" s="22"/>
-      <c r="B16" s="21"/>
-      <c r="C16" s="22"/>
-      <c r="D16" s="21"/>
+      <c r="A16" s="20"/>
+      <c r="B16" s="19"/>
+      <c r="C16" s="20"/>
+      <c r="D16" s="19"/>
     </row>
     <row r="17" spans="1:4" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A17" s="22"/>
-      <c r="B17" s="21"/>
-      <c r="C17" s="22"/>
-      <c r="D17" s="21"/>
+      <c r="A17" s="20"/>
+      <c r="B17" s="19"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="19"/>
     </row>
     <row r="18" spans="1:4" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A18" s="22"/>
-      <c r="B18" s="21"/>
-      <c r="C18" s="22"/>
-      <c r="D18" s="21"/>
+      <c r="A18" s="20"/>
+      <c r="B18" s="19"/>
+      <c r="C18" s="20"/>
+      <c r="D18" s="19"/>
     </row>
     <row r="19" spans="1:4" ht="14.7" thickTop="1" x14ac:dyDescent="0.55000000000000004"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A815184-E27B-41FB-AE5B-3A4C664077F0}">
+  <dimension ref="A1:J14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="2" max="2" width="18.83984375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="9.1015625" customWidth="1"/>
+    <col min="5" max="5" width="22.15625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="1"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+    </row>
+    <row r="2" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+    </row>
+    <row r="3" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="1"/>
+      <c r="B4" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="36">
+        <v>0.2</v>
+      </c>
+      <c r="D4" s="36">
+        <v>0.05</v>
+      </c>
+      <c r="E4" s="36">
+        <v>0.3</v>
+      </c>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="1"/>
+      <c r="B5" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="35">
+        <v>0.9</v>
+      </c>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="1"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="1"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="1"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="1"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="1"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="1"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="1"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="1"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="1"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>